--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -2038,4 +2038,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B51FD6-3AA8-4585-9F8C-1571157EA806}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D0A741-F069-4479-9DDE-4FD2E1FE5F46}"/>
 </file>
--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD32B11-D944-4EE2-9EF0-BA4676B086DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C5A52A-88E1-4897-9871-9A6320DB832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{75F2629F-452D-49B3-BA38-0DD9BD2BBDA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{307E359C-BA8E-4940-90D1-7A597BAE2D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -599,20 +599,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999FCB53-3095-C531-E747-858A37EA7510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FECD9B6-7678-1444-65F5-481D57126F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -943,30 +943,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD732EA-A6B6-4CA0-8446-681258E2DA17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A200A4E2-BFDC-46B7-96FC-ECF12C1EBC03}">
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -983,7 +983,7 @@
       <c r="N1" s="53"/>
       <c r="O1" s="56"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="G2" s="7" t="s">
         <v>1</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="G4" s="7" t="s">
         <v>3</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="G5" s="7" t="s">
         <v>4</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O5" s="45"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -1033,18 +1033,18 @@
       </c>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="G7" s="7"/>
       <c r="J7" s="2"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="J8" s="2"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -1054,14 +1054,14 @@
       </c>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="45"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="9" t="s">
         <v>0</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -1079,7 +1079,7 @@
       <c r="J12" s="4"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="O14" s="45"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="9"/>
       <c r="J15" s="2" t="s">
@@ -1107,13 +1107,13 @@
       </c>
       <c r="O15" s="45"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="9"/>
       <c r="J16" s="2"/>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1128,11 +1128,11 @@
       <c r="J17" s="1"/>
       <c r="O17" s="45"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="O18" s="45"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="C19" s="10" t="s">
         <v>16</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="O19" s="45"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="O20" s="45"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="O21" s="45"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="C22" s="11" t="s">
         <v>21</v>
@@ -1182,7 +1182,7 @@
       <c r="J22" s="34"/>
       <c r="O22" s="45"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="C23" s="14" t="s">
         <v>23</v>
@@ -1202,7 +1202,7 @@
       <c r="J23" s="34"/>
       <c r="O23" s="45"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="C24" s="19" t="s">
         <v>25</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="O24" s="45"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="O25" s="45"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="D26" s="25" t="s">
         <v>26</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="O26" s="45"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="D27" s="26" t="s">
         <v>27</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="O27" s="45"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="D28" s="26" t="s">
         <v>28</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="O28" s="45"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="D29" s="27" t="s">
         <v>29</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="O29" s="45"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="D30" s="25" t="s">
         <v>30</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="O30" s="45"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="D31" s="26" t="s">
         <v>31</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="O31" s="45"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="D32" s="28" t="s">
         <v>29</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O32" s="45"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="D33" s="32" t="s">
         <v>25</v>
@@ -1324,11 +1324,11 @@
       </c>
       <c r="O33" s="45"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="O34" s="45"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="D35" s="11" t="s">
         <v>32</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="O35" s="45"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="D36" s="14" t="s">
         <v>33</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="O36" s="45"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="D37" s="31" t="s">
         <v>25</v>
@@ -1367,15 +1367,15 @@
       </c>
       <c r="O37" s="45"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="O38" s="45"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="O39" s="45"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>21</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="O40" s="45"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>23</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="O41" s="45"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="O42" s="45"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="O43" s="45"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="O44" s="45"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>23</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="O45" s="45"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="O46" s="45"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O47" s="45"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>23</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="O48" s="45"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O49" s="45"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
         <v>23</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O50" s="45"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="O51" s="45"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>23</v>
       </c>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O52" s="45"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
         <v>23</v>
       </c>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="O53" s="45"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="O54" s="45"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -2038,276 +2038,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B51FD6-3AA8-4585-9F8C-1571157EA806}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D0A741-F069-4479-9DDE-4FD2E1FE5F46}"/>
 </file>
--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayahealthcare-my.sharepoint.com/personal/mateo_bolanos_ayahealthcare_com/Documents/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A4B936-807F-49FB-89C9-40C229404427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1D3CB1-AEC6-4F83-A889-89183BC3701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54B301B3-6E2B-46ED-B0EA-5FC07A4C832B}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{13F58E70-D3F6-4652-8D23-C171D472A208}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -65,7 +60,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -617,7 +612,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8781DED9-C379-2CE5-3986-25CA24C25637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A309E510-70D6-CABE-0F1F-3A72EA1A769A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E74C9A5-E8DA-4C42-AACD-7E8CE3581ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CCE1C3-DF74-4031-9372-48DE0A6FDB35}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2064,7 +2059,7 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1D3CB1-AEC6-4F83-A889-89183BC3701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0F6EC1-DB24-415B-9D2E-D2CF5786655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{13F58E70-D3F6-4652-8D23-C171D472A208}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{53997B1F-07B2-46B5-BD1E-6EFCA3A3B8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -599,20 +599,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A309E510-70D6-CABE-0F1F-3A72EA1A769A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12F056F-4E55-5ED6-7E47-B23B8307DFC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CCE1C3-DF74-4031-9372-48DE0A6FDB35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E87A3BC-C9C1-45A2-9610-0D702603BD26}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -973,17 +973,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>

--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0F6EC1-DB24-415B-9D2E-D2CF5786655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D1601C-57AA-481F-8878-D7C098725545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{53997B1F-07B2-46B5-BD1E-6EFCA3A3B8BB}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{A92E5177-99BD-4992-8191-5011429C1BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -599,20 +599,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
+      <xdr:colOff>706755</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12F056F-4E55-5ED6-7E47-B23B8307DFC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968E863C-732B-9234-09D6-E03726D48870}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E87A3BC-C9C1-45A2-9610-0D702603BD26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF20C0A-6D31-40F9-B741-243B8F610B71}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -974,15 +974,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>

--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D1601C-57AA-481F-8878-D7C098725545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C796250F-A673-47A7-BC7D-539B12D71C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{A92E5177-99BD-4992-8191-5011429C1BC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AB51CF78-B4E1-4E7C-A2BF-A791E5C81E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -599,20 +599,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>706755</xdr:colOff>
+      <xdr:colOff>701040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968E863C-732B-9234-09D6-E03726D48870}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0401D394-CD91-F7A4-7CD2-892AF6EA76A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF20C0A-6D31-40F9-B741-243B8F610B71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02363C6C-383A-456B-8842-00B212B7EE2E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -979,14 +979,15 @@
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2059,7 +2060,7 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
+++ b/New files/Elliot Health System/10174064 - OR – Surg Tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C796250F-A673-47A7-BC7D-539B12D71C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E66F2D-D2C6-4AD3-AEA0-9D4773CC8A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AB51CF78-B4E1-4E7C-A2BF-A791E5C81E77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46B9DD11-AA9C-45C7-87C4-3C75AF7231D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="58">
   <si>
     <t>Bill to</t>
   </si>
@@ -138,6 +138,12 @@
     <t>Total Amount Due</t>
   </si>
   <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
     <t>Subcontrator</t>
   </si>
   <si>
@@ -169,6 +175,12 @@
   </si>
   <si>
     <t>Invoice #</t>
+  </si>
+  <si>
+    <t>SURG</t>
+  </si>
+  <si>
+    <t>Certified OR Tech / Surgical Tech (CST)</t>
   </si>
   <si>
     <t>Aya Healthcare</t>
@@ -599,20 +611,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0401D394-CD91-F7A4-7CD2-892AF6EA76A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E24E5F-56CF-6139-3658-86354B25C3F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,34 +975,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02363C6C-383A-456B-8842-00B212B7EE2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE95548A-8DF6-48FD-84EB-A7C8CAFA9ED8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -1005,9 +1018,11 @@
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
-      <c r="O1" s="56"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="56"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="G2" s="7" t="s">
         <v>1</v>
@@ -1015,9 +1030,9 @@
       <c r="J2" s="4">
         <v>10174064</v>
       </c>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q2" s="45"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -1025,9 +1040,9 @@
       <c r="J3" s="5">
         <v>45400</v>
       </c>
-      <c r="O3" s="45"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q3" s="45"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="G4" s="7" t="s">
         <v>3</v>
@@ -1035,9 +1050,9 @@
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q4" s="45"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="G5" s="7" t="s">
         <v>4</v>
@@ -1045,9 +1060,9 @@
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="45"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -1055,20 +1070,20 @@
       <c r="J6" s="3">
         <v>45430</v>
       </c>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="G7" s="7"/>
       <c r="J7" s="2"/>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="J8" s="2"/>
-      <c r="O8" s="45"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -1076,16 +1091,16 @@
       <c r="J9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="45"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="45"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q10" s="45"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="9" t="s">
         <v>0</v>
@@ -1093,17 +1108,17 @@
       <c r="J11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q11" s="45"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="O12" s="45"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q12" s="45"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -1111,9 +1126,9 @@
       <c r="J13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="45"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="45"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -1121,23 +1136,23 @@
       <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="45"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="9"/>
       <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="45"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q15" s="45"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="B16" s="9"/>
       <c r="J16" s="2"/>
-      <c r="O16" s="45"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="45"/>
+    </row>
+    <row r="17" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1150,13 +1165,13 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="O17" s="45"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="45"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
-      <c r="O18" s="45"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q18" s="45"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="C19" s="10" t="s">
         <v>16</v>
@@ -1168,9 +1183,9 @@
       <c r="F19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="45"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q19" s="45"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1180,13 +1195,13 @@
       <c r="F20" s="16">
         <v>7286.4</v>
       </c>
-      <c r="O20" s="45"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q20" s="45"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
-      <c r="O21" s="45"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="45"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="C22" s="11" t="s">
         <v>21</v>
@@ -1204,9 +1219,9 @@
         <v>34</v>
       </c>
       <c r="J22" s="34"/>
-      <c r="O22" s="45"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q22" s="45"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="C23" s="14" t="s">
         <v>23</v>
@@ -1224,9 +1239,9 @@
         <v>7286.4</v>
       </c>
       <c r="J23" s="34"/>
-      <c r="O23" s="45"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="45"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
       <c r="C24" s="19" t="s">
         <v>25</v>
@@ -1238,13 +1253,13 @@
       <c r="F24" s="21">
         <v>7286.4</v>
       </c>
-      <c r="O24" s="45"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q24" s="45"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="48"/>
-      <c r="O25" s="45"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q25" s="45"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="D26" s="25" t="s">
         <v>26</v>
@@ -1255,9 +1270,9 @@
       <c r="F26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="45"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q26" s="45"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="D27" s="26" t="s">
         <v>27</v>
@@ -1268,9 +1283,9 @@
       <c r="F27" s="16">
         <v>6406.4</v>
       </c>
-      <c r="O27" s="45"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="45"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="D28" s="26" t="s">
         <v>28</v>
@@ -1281,9 +1296,9 @@
       <c r="F28" s="16">
         <v>480</v>
       </c>
-      <c r="O28" s="45"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q28" s="45"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="D29" s="27" t="s">
         <v>29</v>
@@ -1294,9 +1309,9 @@
       <c r="F29" s="23">
         <v>6886.4</v>
       </c>
-      <c r="O29" s="45"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="45"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="D30" s="25" t="s">
         <v>30</v>
@@ -1307,9 +1322,9 @@
       <c r="F30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="45"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q30" s="45"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="D31" s="26" t="s">
         <v>31</v>
@@ -1320,9 +1335,9 @@
       <c r="F31" s="16">
         <v>400</v>
       </c>
-      <c r="O31" s="45"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q31" s="45"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="D32" s="28" t="s">
         <v>29</v>
@@ -1333,9 +1348,9 @@
       <c r="F32" s="30">
         <v>400</v>
       </c>
-      <c r="O32" s="45"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q32" s="45"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="D33" s="32" t="s">
         <v>25</v>
@@ -1346,13 +1361,13 @@
       <c r="F33" s="21">
         <v>7286.4</v>
       </c>
-      <c r="O33" s="45"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q33" s="45"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
-      <c r="O34" s="45"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q34" s="45"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="D35" s="11" t="s">
         <v>32</v>
@@ -1363,9 +1378,9 @@
       <c r="F35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="45"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q35" s="45"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="D36" s="14" t="s">
         <v>33</v>
@@ -1376,9 +1391,9 @@
       <c r="F36" s="16">
         <v>7286.4</v>
       </c>
-      <c r="O36" s="45"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q36" s="45"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
       <c r="D37" s="31" t="s">
         <v>25</v>
@@ -1389,17 +1404,17 @@
       <c r="F37" s="21">
         <v>7286.4</v>
       </c>
-      <c r="O37" s="45"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q37" s="45"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
-      <c r="O38" s="45"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q38" s="45"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="48"/>
-      <c r="O39" s="45"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q39" s="45"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>21</v>
       </c>
@@ -1407,24 +1422,24 @@
         <v>22</v>
       </c>
       <c r="C40" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>36</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J40" s="43" t="s">
@@ -1433,18 +1448,24 @@
       <c r="K40" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M40" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="N40" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="45"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="45"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>23</v>
       </c>
@@ -1452,44 +1473,50 @@
         <v>24</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="42">
+      <c r="F41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="42">
         <v>45383</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="44">
+      <c r="J41" s="44">
         <v>10</v>
       </c>
-      <c r="I41" s="44">
-        <v>0</v>
-      </c>
-      <c r="J41" s="44">
-        <v>0</v>
-      </c>
       <c r="K41" s="44">
+        <v>0</v>
+      </c>
+      <c r="L41" s="44">
+        <v>0</v>
+      </c>
+      <c r="M41" s="44">
         <v>10</v>
       </c>
-      <c r="L41" s="38">
+      <c r="N41" s="38">
         <v>80</v>
       </c>
-      <c r="M41" s="38">
+      <c r="O41" s="38">
         <v>800</v>
       </c>
-      <c r="N41" s="40">
+      <c r="P41" s="40">
         <v>10174064</v>
       </c>
-      <c r="O41" s="45"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q41" s="45"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>23</v>
       </c>
@@ -1497,44 +1524,50 @@
         <v>24</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="42">
+      <c r="F42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="42">
         <v>45385</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="44">
+      <c r="J42" s="44">
         <v>10</v>
       </c>
-      <c r="I42" s="44">
-        <v>0</v>
-      </c>
-      <c r="J42" s="44">
-        <v>0</v>
-      </c>
       <c r="K42" s="44">
+        <v>0</v>
+      </c>
+      <c r="L42" s="44">
+        <v>0</v>
+      </c>
+      <c r="M42" s="44">
         <v>10</v>
       </c>
-      <c r="L42" s="38">
+      <c r="N42" s="38">
         <v>80</v>
       </c>
-      <c r="M42" s="38">
+      <c r="O42" s="38">
         <v>800</v>
       </c>
-      <c r="N42" s="40">
+      <c r="P42" s="40">
         <v>10174064</v>
       </c>
-      <c r="O42" s="45"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q42" s="45"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>23</v>
       </c>
@@ -1542,44 +1575,50 @@
         <v>24</v>
       </c>
       <c r="C43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="42">
+      <c r="F43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="42">
         <v>45386</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="12" t="s">
+      <c r="H43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="44">
+      <c r="J43" s="44">
         <v>10</v>
       </c>
-      <c r="I43" s="44">
-        <v>0</v>
-      </c>
-      <c r="J43" s="44">
-        <v>0</v>
-      </c>
       <c r="K43" s="44">
+        <v>0</v>
+      </c>
+      <c r="L43" s="44">
+        <v>0</v>
+      </c>
+      <c r="M43" s="44">
         <v>10</v>
       </c>
-      <c r="L43" s="38">
+      <c r="N43" s="38">
         <v>80</v>
       </c>
-      <c r="M43" s="38">
+      <c r="O43" s="38">
         <v>800</v>
       </c>
-      <c r="N43" s="40">
+      <c r="P43" s="40">
         <v>10174064</v>
       </c>
-      <c r="O43" s="45"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q43" s="45"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
         <v>23</v>
       </c>
@@ -1587,44 +1626,50 @@
         <v>24</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="42">
+      <c r="F44" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="42">
         <v>45386</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="44">
+      <c r="J44" s="44">
         <v>8</v>
       </c>
-      <c r="I44" s="44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="44">
-        <v>0</v>
-      </c>
       <c r="K44" s="44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="44">
         <v>8</v>
       </c>
-      <c r="L44" s="38">
+      <c r="N44" s="38">
         <v>10</v>
       </c>
-      <c r="M44" s="38">
+      <c r="O44" s="38">
         <v>80</v>
       </c>
-      <c r="N44" s="40">
+      <c r="P44" s="40">
         <v>10174064</v>
       </c>
-      <c r="O44" s="45"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q44" s="45"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
         <v>23</v>
       </c>
@@ -1632,44 +1677,50 @@
         <v>24</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="42">
+      <c r="F45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="42">
         <v>45387</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="12" t="s">
+      <c r="H45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="44">
+      <c r="J45" s="44">
         <v>10</v>
       </c>
-      <c r="I45" s="44">
-        <v>0</v>
-      </c>
-      <c r="J45" s="44">
-        <v>0</v>
-      </c>
       <c r="K45" s="44">
+        <v>0</v>
+      </c>
+      <c r="L45" s="44">
+        <v>0</v>
+      </c>
+      <c r="M45" s="44">
         <v>10</v>
       </c>
-      <c r="L45" s="38">
+      <c r="N45" s="38">
         <v>80</v>
       </c>
-      <c r="M45" s="38">
+      <c r="O45" s="38">
         <v>800</v>
       </c>
-      <c r="N45" s="40">
+      <c r="P45" s="40">
         <v>10174064</v>
       </c>
-      <c r="O45" s="45"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q45" s="45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="50" t="s">
         <v>23</v>
       </c>
@@ -1677,44 +1728,50 @@
         <v>24</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="42">
+      <c r="F46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="42">
         <v>45388</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="12" t="s">
+      <c r="H46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="44">
+      <c r="J46" s="44">
         <v>24</v>
       </c>
-      <c r="I46" s="44">
-        <v>0</v>
-      </c>
-      <c r="J46" s="44">
-        <v>0</v>
-      </c>
       <c r="K46" s="44">
+        <v>0</v>
+      </c>
+      <c r="L46" s="44">
+        <v>0</v>
+      </c>
+      <c r="M46" s="44">
         <v>24</v>
       </c>
-      <c r="L46" s="38">
+      <c r="N46" s="38">
         <v>10</v>
       </c>
-      <c r="M46" s="38">
+      <c r="O46" s="38">
         <v>240</v>
       </c>
-      <c r="N46" s="40">
+      <c r="P46" s="40">
         <v>10174064</v>
       </c>
-      <c r="O46" s="45"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q46" s="45"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
         <v>23</v>
       </c>
@@ -1722,44 +1779,50 @@
         <v>24</v>
       </c>
       <c r="C47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="42">
-        <v>45389</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="42">
+        <v>45389</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="44">
+      <c r="J47" s="44">
         <v>2.08</v>
       </c>
-      <c r="I47" s="44">
-        <v>0</v>
-      </c>
-      <c r="J47" s="44">
-        <v>0</v>
-      </c>
       <c r="K47" s="44">
+        <v>0</v>
+      </c>
+      <c r="L47" s="44">
+        <v>0</v>
+      </c>
+      <c r="M47" s="44">
         <v>2.08</v>
       </c>
-      <c r="L47" s="38">
+      <c r="N47" s="38">
         <v>10</v>
       </c>
-      <c r="M47" s="38">
+      <c r="O47" s="38">
         <v>20.8</v>
       </c>
-      <c r="N47" s="40">
+      <c r="P47" s="40">
         <v>10174064</v>
       </c>
-      <c r="O47" s="45"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q47" s="45"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
         <v>23</v>
       </c>
@@ -1767,44 +1830,50 @@
         <v>24</v>
       </c>
       <c r="C48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="42">
+      <c r="F48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="42">
         <v>45389</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="44">
+      <c r="J48" s="44">
         <v>4</v>
       </c>
-      <c r="I48" s="44">
-        <v>0</v>
-      </c>
-      <c r="J48" s="44">
-        <v>0</v>
-      </c>
       <c r="K48" s="44">
+        <v>0</v>
+      </c>
+      <c r="L48" s="44">
+        <v>0</v>
+      </c>
+      <c r="M48" s="44">
         <v>4</v>
       </c>
-      <c r="L48" s="38">
+      <c r="N48" s="38">
         <v>120</v>
       </c>
-      <c r="M48" s="38">
+      <c r="O48" s="38">
         <v>480</v>
       </c>
-      <c r="N48" s="40">
+      <c r="P48" s="40">
         <v>10174064</v>
       </c>
-      <c r="O48" s="45"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q48" s="45"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
         <v>23</v>
       </c>
@@ -1812,44 +1881,50 @@
         <v>24</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="42">
+      <c r="F49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="42">
         <v>45389</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="12" t="s">
+      <c r="H49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="44">
+      <c r="J49" s="44">
         <v>5.92</v>
       </c>
-      <c r="I49" s="44">
-        <v>0</v>
-      </c>
-      <c r="J49" s="44">
-        <v>0</v>
-      </c>
       <c r="K49" s="44">
+        <v>0</v>
+      </c>
+      <c r="L49" s="44">
+        <v>0</v>
+      </c>
+      <c r="M49" s="44">
         <v>5.92</v>
       </c>
-      <c r="L49" s="38">
+      <c r="N49" s="38">
         <v>10</v>
       </c>
-      <c r="M49" s="38">
+      <c r="O49" s="38">
         <v>59.2</v>
       </c>
-      <c r="N49" s="40">
+      <c r="P49" s="40">
         <v>10174064</v>
       </c>
-      <c r="O49" s="45"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q49" s="45"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
         <v>23</v>
       </c>
@@ -1857,44 +1932,50 @@
         <v>24</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="42">
+      <c r="F50" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="42">
         <v>45390</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="12" t="s">
+      <c r="H50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="44">
+      <c r="J50" s="44">
         <v>10</v>
       </c>
-      <c r="I50" s="44">
-        <v>0</v>
-      </c>
-      <c r="J50" s="44">
-        <v>0</v>
-      </c>
       <c r="K50" s="44">
+        <v>0</v>
+      </c>
+      <c r="L50" s="44">
+        <v>0</v>
+      </c>
+      <c r="M50" s="44">
         <v>10</v>
       </c>
-      <c r="L50" s="38">
+      <c r="N50" s="38">
         <v>80</v>
       </c>
-      <c r="M50" s="38">
+      <c r="O50" s="38">
         <v>800</v>
       </c>
-      <c r="N50" s="40">
+      <c r="P50" s="40">
         <v>10174064</v>
       </c>
-      <c r="O50" s="45"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q50" s="45"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="s">
         <v>23</v>
       </c>
@@ -1902,44 +1983,50 @@
         <v>24</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="42">
+      <c r="F51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="42">
         <v>45391</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="44">
+      <c r="J51" s="44">
         <v>10.08</v>
       </c>
-      <c r="I51" s="44">
-        <v>0</v>
-      </c>
-      <c r="J51" s="44">
-        <v>0</v>
-      </c>
       <c r="K51" s="44">
+        <v>0</v>
+      </c>
+      <c r="L51" s="44">
+        <v>0</v>
+      </c>
+      <c r="M51" s="44">
         <v>10.08</v>
       </c>
-      <c r="L51" s="38">
+      <c r="N51" s="38">
         <v>80</v>
       </c>
-      <c r="M51" s="38">
+      <c r="O51" s="38">
         <v>806.4</v>
       </c>
-      <c r="N51" s="40">
+      <c r="P51" s="40">
         <v>10174064</v>
       </c>
-      <c r="O51" s="45"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q51" s="45"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
         <v>23</v>
       </c>
@@ -1947,44 +2034,50 @@
         <v>24</v>
       </c>
       <c r="C52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="42">
+      <c r="F52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="42">
         <v>45393</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="12" t="s">
+      <c r="H52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="44">
+      <c r="J52" s="44">
         <v>10</v>
       </c>
-      <c r="I52" s="44">
-        <v>0</v>
-      </c>
-      <c r="J52" s="44">
-        <v>0</v>
-      </c>
       <c r="K52" s="44">
+        <v>0</v>
+      </c>
+      <c r="L52" s="44">
+        <v>0</v>
+      </c>
+      <c r="M52" s="44">
         <v>10</v>
       </c>
-      <c r="L52" s="38">
+      <c r="N52" s="38">
         <v>80</v>
       </c>
-      <c r="M52" s="38">
+      <c r="O52" s="38">
         <v>800</v>
       </c>
-      <c r="N52" s="40">
+      <c r="P52" s="40">
         <v>10174064</v>
       </c>
-      <c r="O52" s="45"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q52" s="45"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
         <v>23</v>
       </c>
@@ -1992,48 +2085,54 @@
         <v>24</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="42">
+      <c r="F53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="42">
         <v>45394</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="12" t="s">
+      <c r="H53" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="44">
+      <c r="J53" s="44">
         <v>10</v>
       </c>
-      <c r="I53" s="44">
-        <v>0</v>
-      </c>
-      <c r="J53" s="44">
-        <v>0</v>
-      </c>
       <c r="K53" s="44">
+        <v>0</v>
+      </c>
+      <c r="L53" s="44">
+        <v>0</v>
+      </c>
+      <c r="M53" s="44">
         <v>10</v>
       </c>
-      <c r="L53" s="38">
+      <c r="N53" s="38">
         <v>80</v>
       </c>
-      <c r="M53" s="38">
+      <c r="O53" s="38">
         <v>800</v>
       </c>
-      <c r="N53" s="40">
+      <c r="P53" s="40">
         <v>10174064</v>
       </c>
-      <c r="O53" s="45"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q53" s="45"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
-      <c r="O54" s="45"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q54" s="45"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -2048,7 +2147,9 @@
       <c r="L55" s="46"/>
       <c r="M55" s="46"/>
       <c r="N55" s="46"/>
-      <c r="O55" s="47"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
